--- a/IR.xlsx
+++ b/IR.xlsx
@@ -1,43 +1,75 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hanna\Documents\Schule\2023_2024\HWE_Projekt_2023_2024\Infrarot_Distanz_Indikator\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/30e098e8b6e456a9/Documenti/School/FTKL/ir-distance-display/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECF9952E-92CE-4948-8C0E-F883940179B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="59" documentId="13_ncr:1_{ECF9952E-92CE-4948-8C0E-F883940179B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7D1A9AC3-90AB-485A-95CA-49968A4F70D3}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
-    <t>Ue</t>
+    <t>d [cm]</t>
   </si>
   <si>
-    <t>d</t>
+    <t>Ue [mV]</t>
+  </si>
+  <si>
+    <t>If [mA]:</t>
+  </si>
+  <si>
+    <t>Ub [V]:</t>
+  </si>
+  <si>
+    <t>Us1</t>
+  </si>
+  <si>
+    <t>Us2</t>
+  </si>
+  <si>
+    <t>R6 [Ω] = Us1/If =</t>
+  </si>
+  <si>
+    <t>R8 [Ω] = Us2/If =</t>
+  </si>
+  <si>
+    <t>R7 [Ω] = (Us1-Us2)/If =</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -45,16 +77,35 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -62,12 +113,82 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -189,7 +310,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Tabelle1!$C$4:$C$12</c:f>
+              <c:f>Tabelle1!$I$6:$I$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -225,7 +346,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Tabelle1!$D$4:$D$12</c:f>
+              <c:f>Tabelle1!$J$6:$J$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -1010,16 +1131,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>373380</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>156210</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>68580</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>156210</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>317871</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1045,6 +1166,10 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1310,96 +1435,146 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C3:D12"/>
+  <dimension ref="I1:M14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="103" workbookViewId="0">
-      <selection activeCell="O23" sqref="O23"/>
+    <sheetView tabSelected="1" zoomScale="103" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="11" max="11" width="8.90625" customWidth="1"/>
+    <col min="12" max="12" width="20" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="3" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C3" t="s">
+    <row r="1" spans="9:13" x14ac:dyDescent="0.35">
+      <c r="I1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" s="2">
+        <v>40</v>
+      </c>
+      <c r="L1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1">
+        <f>J8/J1</f>
+        <v>3.25</v>
+      </c>
+    </row>
+    <row r="2" spans="9:13" x14ac:dyDescent="0.35">
+      <c r="L2" t="s">
+        <v>8</v>
+      </c>
+      <c r="M2">
+        <f>(J8-J13)/J1</f>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="3" spans="9:13" x14ac:dyDescent="0.35">
+      <c r="I3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="2">
+        <v>5</v>
+      </c>
+      <c r="L3" t="s">
+        <v>7</v>
+      </c>
+      <c r="M3">
+        <f>J13/J8</f>
+        <v>0.23076923076923078</v>
+      </c>
+    </row>
+    <row r="5" spans="9:13" x14ac:dyDescent="0.35">
+      <c r="I5" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="J5" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D3" t="s">
-        <v>0</v>
-      </c>
     </row>
-    <row r="4" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C4">
+    <row r="6" spans="9:13" x14ac:dyDescent="0.35">
+      <c r="I6" s="3">
         <v>1</v>
       </c>
-      <c r="D4">
+      <c r="J6" s="3">
         <v>440</v>
       </c>
     </row>
-    <row r="5" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C5">
+    <row r="7" spans="9:13" x14ac:dyDescent="0.35">
+      <c r="I7" s="3">
         <v>1.5</v>
       </c>
-      <c r="D5">
+      <c r="J7" s="3">
         <v>215</v>
       </c>
     </row>
-    <row r="6" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C6">
+    <row r="8" spans="9:13" x14ac:dyDescent="0.35">
+      <c r="I8" s="4">
         <v>2</v>
       </c>
-      <c r="D6">
+      <c r="J8" s="4">
         <v>130</v>
       </c>
+      <c r="K8" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="7" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C7">
+    <row r="9" spans="9:13" x14ac:dyDescent="0.35">
+      <c r="I9" s="3">
         <v>2.5</v>
       </c>
-      <c r="D7">
+      <c r="J9" s="3">
         <v>95</v>
       </c>
     </row>
-    <row r="8" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C8">
+    <row r="10" spans="9:13" x14ac:dyDescent="0.35">
+      <c r="I10" s="3">
         <v>3</v>
       </c>
-      <c r="D8">
+      <c r="J10" s="3">
         <v>63</v>
       </c>
     </row>
-    <row r="9" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C9">
+    <row r="11" spans="9:13" x14ac:dyDescent="0.35">
+      <c r="I11" s="3">
         <v>3.5</v>
       </c>
-      <c r="D9">
+      <c r="J11" s="3">
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C10">
+    <row r="12" spans="9:13" x14ac:dyDescent="0.35">
+      <c r="I12" s="3">
         <v>4</v>
       </c>
-      <c r="D10">
+      <c r="J12" s="3">
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C11">
+    <row r="13" spans="9:13" x14ac:dyDescent="0.35">
+      <c r="I13" s="4">
         <v>4.5</v>
       </c>
-      <c r="D11">
+      <c r="J13" s="4">
         <v>30</v>
       </c>
+      <c r="K13" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="12" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C12">
+    <row r="14" spans="9:13" x14ac:dyDescent="0.35">
+      <c r="I14" s="5">
         <v>5</v>
       </c>
-      <c r="D12">
+      <c r="J14" s="5">
         <v>26</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/IR.xlsx
+++ b/IR.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/30e098e8b6e456a9/Documenti/School/FTKL/ir-distance-display/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="59" documentId="13_ncr:1_{ECF9952E-92CE-4948-8C0E-F883940179B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7D1A9AC3-90AB-485A-95CA-49968A4F70D3}"/>
+  <xr:revisionPtr revIDLastSave="87" documentId="13_ncr:1_{ECF9952E-92CE-4948-8C0E-F883940179B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{731264FC-9C34-43F1-A460-DACA60334573}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>d [cm]</t>
   </si>
@@ -56,13 +56,22 @@
     <t>Us2</t>
   </si>
   <si>
-    <t>R6 [Ω] = Us1/If =</t>
+    <t>R6 = Us1/If =</t>
   </si>
   <si>
-    <t>R8 [Ω] = Us2/If =</t>
+    <t>R7 = (Us1-Us2)/If =</t>
   </si>
   <si>
-    <t>R7 [Ω] = (Us1-Us2)/If =</t>
+    <t>R8 = Us2/If =</t>
+  </si>
+  <si>
+    <t>=&gt; 3,3kΩ</t>
+  </si>
+  <si>
+    <t>=&gt; 220Ω</t>
+  </si>
+  <si>
+    <t>=&gt; 2,2kΩ</t>
   </si>
 </sst>
 </file>
@@ -180,7 +189,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -189,6 +198,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -310,7 +323,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Tabelle1!$I$6:$I$14</c:f>
+              <c:f>Tabelle1!$A$6:$A$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -346,7 +359,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Tabelle1!$J$6:$J$14</c:f>
+              <c:f>Tabelle1!$B$6:$B$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -372,7 +385,7 @@
                   <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>30</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>26</c:v>
@@ -1131,14 +1144,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>30825</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>317871</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>348696</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -1435,141 +1448,155 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="I1:M14"/>
+  <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="103" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="11" max="11" width="8.90625" customWidth="1"/>
-    <col min="12" max="12" width="20" customWidth="1"/>
+    <col min="3" max="3" width="8.90625" customWidth="1"/>
+    <col min="12" max="12" width="17.453125" customWidth="1"/>
+    <col min="13" max="13" width="8.90625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="9:13" x14ac:dyDescent="0.35">
-      <c r="I1" s="7" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="2">
+      <c r="B3" s="2">
         <v>40</v>
       </c>
-      <c r="L1" t="s">
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" s="3">
+        <v>1</v>
+      </c>
+      <c r="B6" s="3">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="B7" s="3">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" s="4">
+        <v>2</v>
+      </c>
+      <c r="B8" s="4">
+        <v>130</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="B9" s="3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" s="3">
+        <v>3</v>
+      </c>
+      <c r="B10" s="3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="B11" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" s="3">
+        <v>4</v>
+      </c>
+      <c r="B12" s="3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="B13" s="4">
+        <v>34</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" s="5">
+        <v>5</v>
+      </c>
+      <c r="B14" s="5">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
         <v>6</v>
       </c>
-      <c r="M1">
-        <f>J8/J1</f>
+      <c r="B17" s="9">
+        <f>B8/B3</f>
         <v>3.25</v>
       </c>
+      <c r="C17" s="8" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" spans="9:13" x14ac:dyDescent="0.35">
-      <c r="L2" t="s">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" s="9">
+        <f>(B8-B13)/B3</f>
+        <v>2.4</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
         <v>8</v>
       </c>
-      <c r="M2">
-        <f>(J8-J13)/J1</f>
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="3" spans="9:13" x14ac:dyDescent="0.35">
-      <c r="I3" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="2">
-        <v>5</v>
-      </c>
-      <c r="L3" t="s">
-        <v>7</v>
-      </c>
-      <c r="M3">
-        <f>J13/J8</f>
-        <v>0.23076923076923078</v>
-      </c>
-    </row>
-    <row r="5" spans="9:13" x14ac:dyDescent="0.35">
-      <c r="I5" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="J5" s="6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="9:13" x14ac:dyDescent="0.35">
-      <c r="I6" s="3">
-        <v>1</v>
-      </c>
-      <c r="J6" s="3">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="7" spans="9:13" x14ac:dyDescent="0.35">
-      <c r="I7" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="J7" s="3">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="8" spans="9:13" x14ac:dyDescent="0.35">
-      <c r="I8" s="4">
-        <v>2</v>
-      </c>
-      <c r="J8" s="4">
-        <v>130</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="9:13" x14ac:dyDescent="0.35">
-      <c r="I9" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="J9" s="3">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="10" spans="9:13" x14ac:dyDescent="0.35">
-      <c r="I10" s="3">
-        <v>3</v>
-      </c>
-      <c r="J10" s="3">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="11" spans="9:13" x14ac:dyDescent="0.35">
-      <c r="I11" s="3">
-        <v>3.5</v>
-      </c>
-      <c r="J11" s="3">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="12" spans="9:13" x14ac:dyDescent="0.35">
-      <c r="I12" s="3">
-        <v>4</v>
-      </c>
-      <c r="J12" s="3">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="13" spans="9:13" x14ac:dyDescent="0.35">
-      <c r="I13" s="4">
-        <v>4.5</v>
-      </c>
-      <c r="J13" s="4">
-        <v>30</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="9:13" x14ac:dyDescent="0.35">
-      <c r="I14" s="5">
-        <v>5</v>
-      </c>
-      <c r="J14" s="5">
-        <v>26</v>
+      <c r="B19" s="9">
+        <f>B13/B8</f>
+        <v>0.26153846153846155</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/IR.xlsx
+++ b/IR.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/30e098e8b6e456a9/Documenti/School/FTKL/ir-distance-display/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="87" documentId="13_ncr:1_{ECF9952E-92CE-4948-8C0E-F883940179B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{731264FC-9C34-43F1-A460-DACA60334573}"/>
+  <xr:revisionPtr revIDLastSave="93" documentId="13_ncr:1_{ECF9952E-92CE-4948-8C0E-F883940179B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9AA7C8AC-F7AE-4514-9808-3DC5C2963401}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1181,10 +1181,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1451,12 +1447,13 @@
   <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="103" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="8.90625" customWidth="1"/>
+    <col min="3" max="3" width="4.08984375" customWidth="1"/>
+    <col min="4" max="4" width="16.81640625" customWidth="1"/>
     <col min="12" max="12" width="17.453125" customWidth="1"/>
     <col min="13" max="13" width="8.90625" style="9"/>
   </cols>
@@ -1563,39 +1560,39 @@
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
+    <row r="17" spans="4:6" x14ac:dyDescent="0.35">
+      <c r="D17" t="s">
         <v>6</v>
       </c>
-      <c r="B17" s="9">
+      <c r="E17" s="9">
         <f>B8/B3</f>
         <v>3.25</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="F17" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
+    <row r="18" spans="4:6" x14ac:dyDescent="0.35">
+      <c r="D18" t="s">
         <v>7</v>
       </c>
-      <c r="B18" s="9">
+      <c r="E18" s="9">
         <f>(B8-B13)/B3</f>
         <v>2.4</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="F18" s="8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
+    <row r="19" spans="4:6" x14ac:dyDescent="0.35">
+      <c r="D19" t="s">
         <v>8</v>
       </c>
-      <c r="B19" s="9">
+      <c r="E19" s="9">
         <f>B13/B8</f>
         <v>0.26153846153846155</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="F19" s="8" t="s">
         <v>10</v>
       </c>
     </row>

--- a/IR.xlsx
+++ b/IR.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/30e098e8b6e456a9/Documenti/School/FTKL/ir-distance-display/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="93" documentId="13_ncr:1_{ECF9952E-92CE-4948-8C0E-F883940179B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9AA7C8AC-F7AE-4514-9808-3DC5C2963401}"/>
+  <xr:revisionPtr revIDLastSave="94" documentId="13_ncr:1_{ECF9952E-92CE-4948-8C0E-F883940179B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8F5F7189-4F1B-4FC3-99F1-3DC908530A46}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1447,7 +1447,7 @@
   <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="103" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/IR.xlsx
+++ b/IR.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27204"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -1181,6 +1181,10 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1447,7 +1451,7 @@
   <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="103" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
